--- a/UgaritTextsDatabase/PAPER_STATS/EXCEL/ENTRIES_IN_UTDB_ASSOCIATED_WITH_MULTIPLE_SAU_ENTRIES.xlsx
+++ b/UgaritTextsDatabase/PAPER_STATS/EXCEL/ENTRIES_IN_UTDB_ASSOCIATED_WITH_MULTIPLE_SAU_ENTRIES.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19324" uniqueCount="2718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19322" uniqueCount="2717">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -292,15 +292,15 @@
     <t>['20.142C']</t>
   </si>
   <si>
+    <t>['21.005D']</t>
+  </si>
+  <si>
+    <t>['21.063A', '21.007H']</t>
+  </si>
+  <si>
     <t>['20.196A']</t>
   </si>
   <si>
-    <t>['21.063A', '21.007H']</t>
-  </si>
-  <si>
-    <t>['21.005D']</t>
-  </si>
-  <si>
     <t>['20.144X']</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>['20.426B']</t>
   </si>
   <si>
+    <t>['20.149']</t>
+  </si>
+  <si>
     <t>['20.426D']</t>
   </si>
   <si>
-    <t>['20.149']</t>
-  </si>
-  <si>
     <t>['20.171,[25]']</t>
   </si>
   <si>
@@ -700,12 +700,12 @@
     <t>['17.041']</t>
   </si>
   <si>
+    <t>['23.485A']</t>
+  </si>
+  <si>
     <t>['22.436A']</t>
   </si>
   <si>
-    <t>['23.485A']</t>
-  </si>
-  <si>
     <t>['22.217A']</t>
   </si>
   <si>
@@ -2581,12 +2581,12 @@
     <t>DO 4537</t>
   </si>
   <si>
+    <t>DO 6124</t>
+  </si>
+  <si>
     <t>DO 5859</t>
   </si>
   <si>
-    <t>DO 6124</t>
-  </si>
-  <si>
     <t>DO 5789</t>
   </si>
   <si>
@@ -3085,12 +3085,12 @@
     <t>Quartier Rés., M. de Rapanu, entre rooms 6 et 7, p.t. 1827 ? 1,45</t>
   </si>
   <si>
+    <t>Quartier Résidentiel, M. de Rapanu, room 5, p.t. 1900 ? 2,10</t>
+  </si>
+  <si>
     <t>Rapanu’s House, Room 5</t>
   </si>
   <si>
-    <t>Quartier Résidentiel, M. de Rapanu, room 5, p.t. 1900 ? 2,10</t>
-  </si>
-  <si>
     <t>Quartier Rés., M. de Rapanu, entre rooms 5 et 7, p.t. 1845 ? 1,50</t>
   </si>
   <si>
@@ -3148,12 +3148,12 @@
     <t>Quartier Résidentiel, pr?s Maison de Rashapabu, p.t. 672 ? 1,00</t>
   </si>
   <si>
+    <t>Ville Sud, p.t. 3313 ? 1,65</t>
+  </si>
+  <si>
     <t>Ville Sud, déblais</t>
   </si>
   <si>
-    <t>Ville Sud, p.t. 3313 ? 1,65</t>
-  </si>
-  <si>
     <t>Ville Sud, M. aux Textes Littéraires, p.t. 2647 ? 0,90; 2633 ? 0,70</t>
   </si>
   <si>
@@ -3658,15 +3658,15 @@
     <t>RS 20.142C</t>
   </si>
   <si>
+    <t>RS 21.005D</t>
+  </si>
+  <si>
+    <t>RS 21.007H+</t>
+  </si>
+  <si>
     <t>RS 20.196A</t>
   </si>
   <si>
-    <t>RS 21.007H+</t>
-  </si>
-  <si>
-    <t>RS 21.005D</t>
-  </si>
-  <si>
     <t>RS 20.144X</t>
   </si>
   <si>
@@ -3973,12 +3973,12 @@
     <t>RS 20.426B</t>
   </si>
   <si>
+    <t>RS 20.149</t>
+  </si>
+  <si>
     <t>RS 20.426D</t>
   </si>
   <si>
-    <t>RS 20.149</t>
-  </si>
-  <si>
     <t>RS 20.171, [25]</t>
   </si>
   <si>
@@ -4063,12 +4063,12 @@
     <t>RS 17.041</t>
   </si>
   <si>
+    <t>RS 23.485A</t>
+  </si>
+  <si>
     <t>RS 22.436A</t>
   </si>
   <si>
-    <t>RS 23.485A</t>
-  </si>
-  <si>
     <t>RS 22.217A</t>
   </si>
   <si>
@@ -5869,15 +5869,15 @@
     <t>32 64 x 14</t>
   </si>
   <si>
+    <t>12 x 22 x 3</t>
+  </si>
+  <si>
+    <t>46 x 25 x 7</t>
+  </si>
+  <si>
     <t>75 x 65 x 21</t>
   </si>
   <si>
-    <t>46 x 25 x 7</t>
-  </si>
-  <si>
-    <t>12 x 22 x 3</t>
-  </si>
-  <si>
     <t>19 x 15 x 11</t>
   </si>
   <si>
@@ -6181,12 +6181,12 @@
     <t>50 x 52 x 17</t>
   </si>
   <si>
+    <t>95 x 120 x 41</t>
+  </si>
+  <si>
     <t>33 x 24 x 8</t>
   </si>
   <si>
-    <t>95 x 120 x 41</t>
-  </si>
-  <si>
     <t>16 x 11 x 8</t>
   </si>
   <si>
@@ -6262,12 +6262,12 @@
     <t>112 x 74 x 24</t>
   </si>
   <si>
+    <t>40 x 80 x 26</t>
+  </si>
+  <si>
     <t>70 x 65 x 38</t>
   </si>
   <si>
-    <t>40 x 80 x 26</t>
-  </si>
-  <si>
     <t>150 x 84 x 42</t>
   </si>
   <si>
@@ -7766,9 +7766,6 @@
   </si>
   <si>
     <t>ritual?/list (sacrifices)?</t>
-  </si>
-  <si>
-    <t>religious?</t>
   </si>
   <si>
     <t>uncertain</t>
@@ -8672,7 +8669,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -8730,7 +8727,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -8790,7 +8787,7 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -8850,7 +8847,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -8910,7 +8907,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -8970,7 +8967,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -9030,7 +9027,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -9090,7 +9087,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -9150,7 +9147,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -9210,7 +9207,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -9268,7 +9265,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -9326,7 +9323,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -9386,7 +9383,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -9444,7 +9441,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -9502,7 +9499,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -9560,7 +9557,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -9612,7 +9609,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -9672,7 +9669,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -9732,7 +9729,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -9792,7 +9789,7 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -9852,7 +9849,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -9912,7 +9909,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -9970,7 +9967,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -10022,7 +10019,7 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -10074,7 +10071,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -10134,7 +10131,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -10174,7 +10171,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -10234,7 +10231,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -10286,7 +10283,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -10338,7 +10335,7 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -10390,7 +10387,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -10444,7 +10441,7 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -10498,7 +10495,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -10556,7 +10553,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -10614,7 +10611,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -10672,7 +10669,7 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -10730,7 +10727,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -10788,7 +10785,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -10846,7 +10843,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -10904,7 +10901,7 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -10964,7 +10961,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -11024,7 +11021,7 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -11084,7 +11081,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -11144,7 +11141,7 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -11204,7 +11201,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -11264,7 +11261,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -11324,7 +11321,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -11384,7 +11381,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -11444,7 +11441,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -11504,7 +11501,7 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -11564,7 +11561,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -11620,7 +11617,7 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -11686,7 +11683,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -11740,7 +11737,7 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -11796,7 +11793,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -11856,7 +11853,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -11916,7 +11913,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -11970,7 +11967,7 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -12024,7 +12021,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -12078,7 +12075,7 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -12132,7 +12129,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -12186,7 +12183,7 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="64" spans="1:24">
@@ -12240,7 +12237,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -12294,7 +12291,7 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -12350,7 +12347,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -12406,7 +12403,7 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -12419,15 +12416,9 @@
       <c r="C68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>796</v>
-      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
         <v>821</v>
       </c>
@@ -12436,7 +12427,7 @@
         <v>823</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>992</v>
@@ -12446,10 +12437,10 @@
         <v>1022</v>
       </c>
       <c r="N68" s="2">
-        <v>1838</v>
+        <v>1900</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>1213</v>
@@ -12468,7 +12459,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -12499,7 +12490,7 @@
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N69" s="3">
         <v>1900</v>
@@ -12524,7 +12515,7 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -12537,9 +12528,15 @@
       <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>796</v>
+      </c>
       <c r="G70" s="2" t="s">
         <v>821</v>
       </c>
@@ -12548,7 +12545,7 @@
         <v>823</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>992</v>
@@ -12558,10 +12555,10 @@
         <v>1023</v>
       </c>
       <c r="N70" s="2">
-        <v>1900</v>
+        <v>1838</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>1215</v>
@@ -12580,7 +12577,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -12636,7 +12633,7 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -12692,7 +12689,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="73" spans="1:24">
@@ -12748,7 +12745,7 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="74" spans="1:24">
@@ -12804,7 +12801,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -12860,7 +12857,7 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -12916,7 +12913,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -12972,7 +12969,7 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -13028,7 +13025,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -13059,7 +13056,7 @@
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N79" s="3">
         <v>1900</v>
@@ -13084,7 +13081,7 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -13115,7 +13112,7 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N80" s="2">
         <v>1900</v>
@@ -13140,7 +13137,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -13171,7 +13168,7 @@
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N81" s="3">
         <v>1900</v>
@@ -13196,7 +13193,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="82" spans="1:24">
@@ -13227,7 +13224,7 @@
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N82" s="2">
         <v>1900</v>
@@ -13252,7 +13249,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -13283,7 +13280,7 @@
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="N83" s="3">
         <v>1900</v>
@@ -13308,7 +13305,7 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="84" spans="1:24">
@@ -13364,7 +13361,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -13420,7 +13417,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -13476,7 +13473,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -13532,7 +13529,7 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -13588,7 +13585,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -13644,7 +13641,7 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -13700,7 +13697,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -13756,7 +13753,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -13812,7 +13809,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -13868,7 +13865,7 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -13924,7 +13921,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="95" spans="1:24">
@@ -13980,7 +13977,7 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -14036,7 +14033,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -14092,7 +14089,7 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -14148,7 +14145,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -14204,7 +14201,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -14260,7 +14257,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -14316,7 +14313,7 @@
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
       <c r="X101" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -14372,7 +14369,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -14420,7 +14417,7 @@
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
       <c r="X103" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="104" spans="1:24">
@@ -14476,7 +14473,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="105" spans="1:24">
@@ -14532,7 +14529,7 @@
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
       <c r="X105" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="106" spans="1:24">
@@ -14588,7 +14585,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -14644,7 +14641,7 @@
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
       <c r="X107" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -14700,7 +14697,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -14756,7 +14753,7 @@
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
       <c r="X109" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -14812,7 +14809,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -14868,7 +14865,7 @@
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
       <c r="X111" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -14924,7 +14921,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -14980,7 +14977,7 @@
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
       <c r="X113" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -15036,7 +15033,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="115" spans="1:24">
@@ -15092,7 +15089,7 @@
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
       <c r="X115" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -15148,7 +15145,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -15204,7 +15201,7 @@
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
       <c r="X117" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -15260,7 +15257,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -15316,7 +15313,7 @@
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
       <c r="X119" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -15372,7 +15369,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -15428,7 +15425,7 @@
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
       <c r="X121" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -15486,7 +15483,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -15542,7 +15539,7 @@
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
       <c r="X123" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -15598,7 +15595,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -15654,7 +15651,7 @@
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
       <c r="X125" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -15710,7 +15707,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -15766,7 +15763,7 @@
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
       <c r="X127" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -15822,7 +15819,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -15878,7 +15875,7 @@
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
       <c r="X129" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -15934,7 +15931,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="131" spans="1:24">
@@ -15990,7 +15987,7 @@
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
       <c r="X131" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -16046,7 +16043,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -16102,7 +16099,7 @@
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
       <c r="X133" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -16158,7 +16155,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -16214,7 +16211,7 @@
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
       <c r="X135" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -16270,7 +16267,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -16326,7 +16323,7 @@
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
       <c r="X137" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -16382,7 +16379,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -16440,7 +16437,7 @@
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
       <c r="X139" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -16498,7 +16495,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -16556,7 +16553,7 @@
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
       <c r="X141" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -16612,7 +16609,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -16670,7 +16667,7 @@
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
       <c r="X143" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -16726,7 +16723,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -16782,7 +16779,7 @@
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
       <c r="X145" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -16838,7 +16835,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -16894,7 +16891,7 @@
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
       <c r="X147" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -16950,7 +16947,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="149" spans="1:24">
@@ -17006,7 +17003,7 @@
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
       <c r="X149" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -17062,7 +17059,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
       <c r="X150" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -17118,7 +17115,7 @@
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
       <c r="X151" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="152" spans="1:24">
@@ -17174,7 +17171,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -17230,7 +17227,7 @@
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
       <c r="X153" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -17286,7 +17283,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -17342,7 +17339,7 @@
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
       <c r="X155" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -17398,7 +17395,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="157" spans="1:24">
@@ -17454,7 +17451,7 @@
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
       <c r="X157" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="158" spans="1:24">
@@ -17510,7 +17507,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -17566,7 +17563,7 @@
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
       <c r="X159" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -17622,7 +17619,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -17678,7 +17675,7 @@
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
       <c r="X161" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -17734,7 +17731,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
       <c r="X162" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="163" spans="1:24">
@@ -17790,7 +17787,7 @@
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
       <c r="X163" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -17846,7 +17843,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -17902,7 +17899,7 @@
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
       <c r="X165" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -17958,7 +17955,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -18014,7 +18011,7 @@
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -18070,7 +18067,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="169" spans="1:24">
@@ -18126,7 +18123,7 @@
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="170" spans="1:24">
@@ -18182,7 +18179,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -18244,7 +18241,7 @@
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
       <c r="X171" s="3" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -18306,7 +18303,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -18319,9 +18316,15 @@
       <c r="C173" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
+      <c r="D173" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="G173" s="3" t="s">
         <v>825</v>
       </c>
@@ -18330,20 +18333,20 @@
         <v>823</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="K173" s="3" t="s">
         <v>992</v>
       </c>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="N173" s="3">
-        <v>1844</v>
+        <v>1871</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="P173" s="3" t="s">
         <v>1318</v>
@@ -18362,7 +18365,7 @@
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
       <c r="X173" s="3" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -18375,15 +18378,9 @@
       <c r="C174" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>799</v>
-      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
         <v>825</v>
       </c>
@@ -18392,20 +18389,20 @@
         <v>823</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>992</v>
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="N174" s="2">
-        <v>1871</v>
+        <v>1844</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>1319</v>
@@ -18424,7 +18421,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -18480,7 +18477,7 @@
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
       <c r="X175" s="3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -18536,7 +18533,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -18592,7 +18589,7 @@
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
       <c r="X177" s="3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -18648,7 +18645,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -18704,7 +18701,7 @@
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
       <c r="X179" s="3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -18764,7 +18761,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="181" spans="1:24">
@@ -18824,7 +18821,7 @@
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
       <c r="X181" s="3" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -18864,7 +18861,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
       <c r="X182" s="2" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -18920,7 +18917,7 @@
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
       <c r="X183" s="3" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -18976,13 +18973,11 @@
       <c r="T184" s="2">
         <v>4.734</v>
       </c>
-      <c r="U184" s="2" t="s">
-        <v>2583</v>
-      </c>
+      <c r="U184" s="2"/>
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -19035,12 +19030,12 @@
         <v>1.154</v>
       </c>
       <c r="U185" s="3" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
       <c r="X185" s="3" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -19094,7 +19089,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
       <c r="X186" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -19148,7 +19143,7 @@
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
       <c r="X187" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -19202,7 +19197,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -19256,7 +19251,7 @@
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
       <c r="X189" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -19314,7 +19309,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -19372,7 +19367,7 @@
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
       <c r="X191" s="3" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -19424,7 +19419,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -19476,7 +19471,7 @@
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
       <c r="X193" s="3" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -19528,7 +19523,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -19580,7 +19575,7 @@
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
       <c r="X195" s="3" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="196" spans="1:24">
@@ -19632,7 +19627,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -19688,7 +19683,7 @@
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
       <c r="X197" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="198" spans="1:24">
@@ -19744,7 +19739,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="199" spans="1:24">
@@ -19800,7 +19795,7 @@
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
       <c r="X199" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="200" spans="1:24">
@@ -19856,7 +19851,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -19912,7 +19907,7 @@
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
       <c r="X201" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -19968,7 +19963,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
       <c r="X202" s="2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -20032,7 +20027,7 @@
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
       <c r="X203" s="3" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="204" spans="1:24">
@@ -20065,8 +20060,12 @@
       <c r="M204" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="N204" s="2"/>
-      <c r="O204" s="2"/>
+      <c r="N204" s="2">
+        <v>3313</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>1132</v>
+      </c>
       <c r="P204" s="2" t="s">
         <v>1348</v>
       </c>
@@ -20084,7 +20083,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
       <c r="X204" s="2" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -20117,12 +20116,8 @@
       <c r="M205" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="N205" s="3">
-        <v>3313</v>
-      </c>
-      <c r="O205" s="3" t="s">
-        <v>1132</v>
-      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
       <c r="P205" s="3" t="s">
         <v>1349</v>
       </c>
@@ -20140,7 +20135,7 @@
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
       <c r="X205" s="3" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -20200,7 +20195,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
       <c r="X206" s="2" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -20260,7 +20255,7 @@
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
       <c r="X207" s="3" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -20314,7 +20309,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
       <c r="X208" s="2" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -20366,7 +20361,7 @@
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
       <c r="X209" s="3" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -20424,7 +20419,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
       <c r="X210" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -20482,7 +20477,7 @@
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
       <c r="X211" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -20540,7 +20535,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
       <c r="X212" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -20598,7 +20593,7 @@
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
       <c r="X213" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -20656,7 +20651,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
       <c r="X214" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -20714,7 +20709,7 @@
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
       <c r="X215" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -20772,7 +20767,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
       <c r="X216" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="217" spans="1:24">
@@ -20830,7 +20825,7 @@
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
       <c r="X217" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -20888,7 +20883,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
       <c r="X218" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -20946,7 +20941,7 @@
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
       <c r="X219" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -21004,7 +20999,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
       <c r="X220" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -21062,7 +21057,7 @@
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
       <c r="X221" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -21120,7 +21115,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
       <c r="X222" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -21178,7 +21173,7 @@
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
       <c r="X223" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -21236,7 +21231,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
       <c r="X224" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -21294,7 +21289,7 @@
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
       <c r="X225" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="226" spans="1:24">
@@ -21352,7 +21347,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
       <c r="X226" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -21410,7 +21405,7 @@
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
       <c r="X227" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="228" spans="1:24">
@@ -21468,7 +21463,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
       <c r="X228" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="229" spans="1:24">
@@ -21528,7 +21523,7 @@
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
       <c r="X229" s="3" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="230" spans="1:24">
@@ -21588,7 +21583,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
       <c r="X230" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -21648,7 +21643,7 @@
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
       <c r="X231" s="3" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -21708,7 +21703,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
       <c r="X232" s="2" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="233" spans="1:24">
@@ -21768,7 +21763,7 @@
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
       <c r="X233" s="3" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="234" spans="1:24">
@@ -21828,7 +21823,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
       <c r="X234" s="2" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -21888,7 +21883,7 @@
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
       <c r="X235" s="3" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -21948,7 +21943,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
       <c r="X236" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="237" spans="1:24">
@@ -22008,7 +22003,7 @@
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
       <c r="X237" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -22068,7 +22063,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
       <c r="X238" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -22128,7 +22123,7 @@
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
       <c r="X239" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -22188,7 +22183,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
       <c r="X240" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="241" spans="1:24">
@@ -22248,7 +22243,7 @@
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
       <c r="X241" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="242" spans="1:24">
@@ -22306,7 +22301,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
       <c r="X242" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -22364,7 +22359,7 @@
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
       <c r="X243" s="3" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -22422,7 +22417,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
       <c r="X244" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -22478,7 +22473,7 @@
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
       <c r="X245" s="3" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="246" spans="1:24">
@@ -22536,7 +22531,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
       <c r="X246" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="247" spans="1:24">
@@ -22600,7 +22595,7 @@
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
       <c r="X247" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="248" spans="1:24">
@@ -22658,7 +22653,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
       <c r="X248" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="249" spans="1:24">
@@ -22714,7 +22709,7 @@
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
       <c r="X249" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="250" spans="1:24">
@@ -22772,7 +22767,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
       <c r="X250" s="2" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="251" spans="1:24">
@@ -22830,7 +22825,7 @@
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
       <c r="X251" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="252" spans="1:24">
@@ -22894,7 +22889,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
       <c r="X252" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="253" spans="1:24">
@@ -22952,7 +22947,7 @@
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
       <c r="X253" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="254" spans="1:24">
@@ -23016,7 +23011,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
       <c r="X254" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="255" spans="1:24">
@@ -23072,7 +23067,7 @@
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
       <c r="X255" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="256" spans="1:24">
@@ -23134,7 +23129,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
       <c r="X256" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -23194,7 +23189,7 @@
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
       <c r="X257" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="258" spans="1:24">
@@ -23252,7 +23247,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
       <c r="X258" s="2" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="259" spans="1:24">
@@ -23316,7 +23311,7 @@
       <c r="V259" s="3"/>
       <c r="W259" s="3"/>
       <c r="X259" s="3" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="260" spans="1:24">
@@ -23374,7 +23369,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
       <c r="X260" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="261" spans="1:24">
@@ -23432,7 +23427,7 @@
       <c r="V261" s="3"/>
       <c r="W261" s="3"/>
       <c r="X261" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="262" spans="1:24">
@@ -23490,7 +23485,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
       <c r="X262" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="263" spans="1:24">
@@ -23548,7 +23543,7 @@
       <c r="V263" s="3"/>
       <c r="W263" s="3"/>
       <c r="X263" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="264" spans="1:24">
@@ -23606,7 +23601,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
       <c r="X264" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -23664,7 +23659,7 @@
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
       <c r="X265" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -23720,7 +23715,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
       <c r="X266" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="267" spans="1:24">
@@ -23778,7 +23773,7 @@
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
       <c r="X267" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="268" spans="1:24">
@@ -23842,7 +23837,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
       <c r="X268" s="2" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="269" spans="1:24">
@@ -23900,7 +23895,7 @@
       <c r="V269" s="3"/>
       <c r="W269" s="3"/>
       <c r="X269" s="3" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="270" spans="1:24">
@@ -23956,7 +23951,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
       <c r="X270" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -24012,7 +24007,7 @@
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
       <c r="X271" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -24068,7 +24063,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
       <c r="X272" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -24122,7 +24117,7 @@
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
       <c r="X273" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -24176,7 +24171,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
       <c r="X274" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="275" spans="1:24">
@@ -24230,7 +24225,7 @@
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
       <c r="X275" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="276" spans="1:24">
@@ -24286,7 +24281,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
       <c r="X276" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -24342,7 +24337,7 @@
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
       <c r="X277" s="3" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -24398,7 +24393,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
       <c r="X278" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="279" spans="1:24">
@@ -24454,7 +24449,7 @@
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
       <c r="X279" s="3" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="280" spans="1:24">
@@ -24508,7 +24503,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
       <c r="X280" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -24564,7 +24559,7 @@
       <c r="V281" s="3"/>
       <c r="W281" s="3"/>
       <c r="X281" s="3" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="282" spans="1:24">
@@ -24617,12 +24612,12 @@
         <v>1.59</v>
       </c>
       <c r="U282" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
       <c r="X282" s="2" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="283" spans="1:24">
@@ -24678,7 +24673,7 @@
       <c r="V283" s="3"/>
       <c r="W283" s="3"/>
       <c r="X283" s="3" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="284" spans="1:24">
@@ -24740,7 +24735,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
       <c r="X284" s="2" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -24796,7 +24791,7 @@
       <c r="V285" s="3"/>
       <c r="W285" s="3"/>
       <c r="X285" s="3" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -24850,7 +24845,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
       <c r="X286" s="2" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -24908,7 +24903,7 @@
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
       <c r="X287" s="3" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -24966,7 +24961,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
       <c r="X288" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -25016,7 +25011,7 @@
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
       <c r="X289" s="3" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="290" spans="1:24">
@@ -25078,7 +25073,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
       <c r="X290" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="291" spans="1:24">
@@ -25133,12 +25128,12 @@
       </c>
       <c r="T291" s="3"/>
       <c r="U291" s="3" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
       <c r="X291" s="3" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="292" spans="1:24">
@@ -25190,7 +25185,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
       <c r="X292" s="2" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="293" spans="1:24">
@@ -25242,7 +25237,7 @@
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
       <c r="X293" s="3" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="294" spans="1:24">
@@ -25294,7 +25289,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
       <c r="X294" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="295" spans="1:24">
@@ -25346,7 +25341,7 @@
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
       <c r="X295" s="3" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="296" spans="1:24">
@@ -25398,7 +25393,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
       <c r="X296" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="297" spans="1:24">
@@ -25450,7 +25445,7 @@
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
       <c r="X297" s="3" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="298" spans="1:24">
@@ -25502,7 +25497,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
       <c r="X298" s="2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="299" spans="1:24">
@@ -25554,7 +25549,7 @@
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
       <c r="X299" s="3" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="300" spans="1:24">
@@ -25606,7 +25601,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
       <c r="X300" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="301" spans="1:24">
@@ -25658,7 +25653,7 @@
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
       <c r="X301" s="3" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -25710,7 +25705,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
       <c r="X302" s="2" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="303" spans="1:24">
@@ -25762,7 +25757,7 @@
       <c r="V303" s="3"/>
       <c r="W303" s="3"/>
       <c r="X303" s="3" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -25814,7 +25809,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
       <c r="X304" s="2" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="305" spans="1:24">
@@ -25866,7 +25861,7 @@
       <c r="V305" s="3"/>
       <c r="W305" s="3"/>
       <c r="X305" s="3" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -25918,7 +25913,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
       <c r="X306" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="307" spans="1:24">
@@ -25970,7 +25965,7 @@
       <c r="V307" s="3"/>
       <c r="W307" s="3"/>
       <c r="X307" s="3" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="308" spans="1:24">
@@ -26022,7 +26017,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
       <c r="X308" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="309" spans="1:24">
@@ -26074,7 +26069,7 @@
       <c r="V309" s="3"/>
       <c r="W309" s="3"/>
       <c r="X309" s="3" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="310" spans="1:24">
@@ -26126,7 +26121,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
       <c r="X310" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -26178,7 +26173,7 @@
       <c r="V311" s="3"/>
       <c r="W311" s="3"/>
       <c r="X311" s="3" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="312" spans="1:24">
@@ -26230,7 +26225,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
       <c r="X312" s="2" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="313" spans="1:24">
@@ -26282,7 +26277,7 @@
       <c r="V313" s="3"/>
       <c r="W313" s="3"/>
       <c r="X313" s="3" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -26334,7 +26329,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
       <c r="X314" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="315" spans="1:24">
@@ -26386,7 +26381,7 @@
       <c r="V315" s="3"/>
       <c r="W315" s="3"/>
       <c r="X315" s="3" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -26438,7 +26433,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
       <c r="X316" s="2" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="317" spans="1:24">
@@ -26478,7 +26473,7 @@
       <c r="V317" s="3"/>
       <c r="W317" s="3"/>
       <c r="X317" s="3" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -26530,7 +26525,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
       <c r="X318" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="319" spans="1:24">
@@ -26585,12 +26580,12 @@
         <v>7.55</v>
       </c>
       <c r="U319" s="3" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="V319" s="3"/>
       <c r="W319" s="3"/>
       <c r="X319" s="3" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="320" spans="1:24">
@@ -26630,7 +26625,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
       <c r="X320" s="2" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -26670,7 +26665,7 @@
       <c r="V321" s="3"/>
       <c r="W321" s="3"/>
       <c r="X321" s="3" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -26725,12 +26720,12 @@
         <v>1.25</v>
       </c>
       <c r="U322" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
       <c r="X322" s="2" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -26783,12 +26778,12 @@
       </c>
       <c r="T323" s="3"/>
       <c r="U323" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V323" s="3"/>
       <c r="W323" s="3"/>
       <c r="X323" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="324" spans="1:24">
@@ -26841,12 +26836,12 @@
       </c>
       <c r="T324" s="2"/>
       <c r="U324" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
       <c r="X324" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="325" spans="1:24">
@@ -26899,12 +26894,12 @@
       </c>
       <c r="T325" s="3"/>
       <c r="U325" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V325" s="3"/>
       <c r="W325" s="3"/>
       <c r="X325" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="326" spans="1:24">
@@ -26957,12 +26952,12 @@
       </c>
       <c r="T326" s="2"/>
       <c r="U326" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
       <c r="X326" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="327" spans="1:24">
@@ -27015,12 +27010,12 @@
       </c>
       <c r="T327" s="3"/>
       <c r="U327" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V327" s="3"/>
       <c r="W327" s="3"/>
       <c r="X327" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="328" spans="1:24">
@@ -27073,12 +27068,12 @@
       </c>
       <c r="T328" s="2"/>
       <c r="U328" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
       <c r="X328" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -27131,12 +27126,12 @@
       </c>
       <c r="T329" s="3"/>
       <c r="U329" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V329" s="3"/>
       <c r="W329" s="3"/>
       <c r="X329" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="330" spans="1:24">
@@ -27189,12 +27184,12 @@
       </c>
       <c r="T330" s="2"/>
       <c r="U330" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
       <c r="X330" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="331" spans="1:24">
@@ -27247,12 +27242,12 @@
       </c>
       <c r="T331" s="3"/>
       <c r="U331" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V331" s="3"/>
       <c r="W331" s="3"/>
       <c r="X331" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="332" spans="1:24">
@@ -27305,12 +27300,12 @@
       </c>
       <c r="T332" s="2"/>
       <c r="U332" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
       <c r="X332" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="333" spans="1:24">
@@ -27363,12 +27358,12 @@
       </c>
       <c r="T333" s="3"/>
       <c r="U333" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V333" s="3"/>
       <c r="W333" s="3"/>
       <c r="X333" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="334" spans="1:24">
@@ -27421,12 +27416,12 @@
       </c>
       <c r="T334" s="2"/>
       <c r="U334" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
       <c r="X334" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="335" spans="1:24">
@@ -27479,12 +27474,12 @@
       </c>
       <c r="T335" s="3"/>
       <c r="U335" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V335" s="3"/>
       <c r="W335" s="3"/>
       <c r="X335" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="336" spans="1:24">
@@ -27537,12 +27532,12 @@
       </c>
       <c r="T336" s="2"/>
       <c r="U336" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
       <c r="X336" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="337" spans="1:24">
@@ -27595,12 +27590,12 @@
       </c>
       <c r="T337" s="3"/>
       <c r="U337" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V337" s="3"/>
       <c r="W337" s="3"/>
       <c r="X337" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -27653,12 +27648,12 @@
       </c>
       <c r="T338" s="2"/>
       <c r="U338" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
       <c r="X338" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="339" spans="1:24">
@@ -27711,12 +27706,12 @@
       </c>
       <c r="T339" s="3"/>
       <c r="U339" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V339" s="3"/>
       <c r="W339" s="3"/>
       <c r="X339" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -27769,12 +27764,12 @@
       </c>
       <c r="T340" s="2"/>
       <c r="U340" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
       <c r="X340" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -27827,12 +27822,12 @@
       </c>
       <c r="T341" s="3"/>
       <c r="U341" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V341" s="3"/>
       <c r="W341" s="3"/>
       <c r="X341" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="342" spans="1:24">
@@ -27885,12 +27880,12 @@
       </c>
       <c r="T342" s="2"/>
       <c r="U342" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
       <c r="X342" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -27943,12 +27938,12 @@
       </c>
       <c r="T343" s="3"/>
       <c r="U343" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V343" s="3"/>
       <c r="W343" s="3"/>
       <c r="X343" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -28001,12 +27996,12 @@
       </c>
       <c r="T344" s="2"/>
       <c r="U344" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
       <c r="X344" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="345" spans="1:24">
@@ -28059,12 +28054,12 @@
       </c>
       <c r="T345" s="3"/>
       <c r="U345" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V345" s="3"/>
       <c r="W345" s="3"/>
       <c r="X345" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="346" spans="1:24">
@@ -28117,12 +28112,12 @@
       </c>
       <c r="T346" s="2"/>
       <c r="U346" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
       <c r="X346" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="347" spans="1:24">
@@ -28175,12 +28170,12 @@
       </c>
       <c r="T347" s="3"/>
       <c r="U347" s="3" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V347" s="3"/>
       <c r="W347" s="3"/>
       <c r="X347" s="3" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="348" spans="1:24">
@@ -28233,12 +28228,12 @@
       </c>
       <c r="T348" s="2"/>
       <c r="U348" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
       <c r="X348" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="349" spans="1:24">
@@ -28292,7 +28287,7 @@
       <c r="V349" s="3"/>
       <c r="W349" s="3"/>
       <c r="X349" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="350" spans="1:24">
@@ -28346,7 +28341,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
       <c r="X350" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="351" spans="1:24">
@@ -28400,7 +28395,7 @@
       <c r="V351" s="3"/>
       <c r="W351" s="3"/>
       <c r="X351" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="352" spans="1:24">
@@ -28454,7 +28449,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
       <c r="X352" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="353" spans="1:24">
@@ -28508,7 +28503,7 @@
       <c r="V353" s="3"/>
       <c r="W353" s="3"/>
       <c r="X353" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="354" spans="1:24">
@@ -28562,7 +28557,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
       <c r="X354" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="355" spans="1:24">
@@ -28616,7 +28611,7 @@
       <c r="V355" s="3"/>
       <c r="W355" s="3"/>
       <c r="X355" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="356" spans="1:24">
@@ -28670,7 +28665,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
       <c r="X356" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="357" spans="1:24">
@@ -28724,7 +28719,7 @@
       <c r="V357" s="3"/>
       <c r="W357" s="3"/>
       <c r="X357" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="358" spans="1:24">
@@ -28778,7 +28773,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
       <c r="X358" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="359" spans="1:24">
@@ -28832,7 +28827,7 @@
       <c r="V359" s="3"/>
       <c r="W359" s="3"/>
       <c r="X359" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="360" spans="1:24">
@@ -28886,7 +28881,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
       <c r="X360" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="361" spans="1:24">
@@ -28940,7 +28935,7 @@
       <c r="V361" s="3"/>
       <c r="W361" s="3"/>
       <c r="X361" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -28994,7 +28989,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
       <c r="X362" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -29048,7 +29043,7 @@
       <c r="V363" s="3"/>
       <c r="W363" s="3"/>
       <c r="X363" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="364" spans="1:24">
@@ -29102,7 +29097,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
       <c r="X364" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="365" spans="1:24">
@@ -29156,7 +29151,7 @@
       <c r="V365" s="3"/>
       <c r="W365" s="3"/>
       <c r="X365" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="366" spans="1:24">
@@ -29210,7 +29205,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
       <c r="X366" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="367" spans="1:24">
@@ -29264,7 +29259,7 @@
       <c r="V367" s="3"/>
       <c r="W367" s="3"/>
       <c r="X367" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="368" spans="1:24">
@@ -29318,7 +29313,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
       <c r="X368" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="369" spans="1:24">
@@ -29372,7 +29367,7 @@
       <c r="V369" s="3"/>
       <c r="W369" s="3"/>
       <c r="X369" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="370" spans="1:24">
@@ -29426,7 +29421,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
       <c r="X370" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="371" spans="1:24">
@@ -29480,7 +29475,7 @@
       <c r="V371" s="3"/>
       <c r="W371" s="3"/>
       <c r="X371" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="372" spans="1:24">
@@ -29534,7 +29529,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
       <c r="X372" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="373" spans="1:24">
@@ -29588,7 +29583,7 @@
       <c r="V373" s="3"/>
       <c r="W373" s="3"/>
       <c r="X373" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="374" spans="1:24">
@@ -29642,7 +29637,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
       <c r="X374" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="375" spans="1:24">
@@ -29696,7 +29691,7 @@
       <c r="V375" s="3"/>
       <c r="W375" s="3"/>
       <c r="X375" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="376" spans="1:24">
@@ -29750,7 +29745,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
       <c r="X376" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="377" spans="1:24">
@@ -29804,7 +29799,7 @@
       <c r="V377" s="3"/>
       <c r="W377" s="3"/>
       <c r="X377" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="378" spans="1:24">
@@ -29858,7 +29853,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
       <c r="X378" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -29912,7 +29907,7 @@
       <c r="V379" s="3"/>
       <c r="W379" s="3"/>
       <c r="X379" s="3" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="380" spans="1:24">
@@ -29968,7 +29963,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
       <c r="X380" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="381" spans="1:24">
@@ -30024,7 +30019,7 @@
       <c r="V381" s="3"/>
       <c r="W381" s="3"/>
       <c r="X381" s="3" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="382" spans="1:24">
@@ -30080,7 +30075,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
       <c r="X382" s="2" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -30136,7 +30131,7 @@
       <c r="V383" s="3"/>
       <c r="W383" s="3"/>
       <c r="X383" s="3" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="384" spans="1:24">
@@ -30192,7 +30187,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
       <c r="X384" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="385" spans="1:24">
@@ -30248,7 +30243,7 @@
       <c r="V385" s="3"/>
       <c r="W385" s="3"/>
       <c r="X385" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="386" spans="1:24">
@@ -30304,7 +30299,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
       <c r="X386" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="387" spans="1:24">
@@ -30360,7 +30355,7 @@
       <c r="V387" s="3"/>
       <c r="W387" s="3"/>
       <c r="X387" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="388" spans="1:24">
@@ -30416,7 +30411,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
       <c r="X388" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="389" spans="1:24">
@@ -30472,7 +30467,7 @@
       <c r="V389" s="3"/>
       <c r="W389" s="3"/>
       <c r="X389" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="390" spans="1:24">
@@ -30528,7 +30523,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
       <c r="X390" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="391" spans="1:24">
@@ -30584,7 +30579,7 @@
       <c r="V391" s="3"/>
       <c r="W391" s="3"/>
       <c r="X391" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="392" spans="1:24">
@@ -30640,7 +30635,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
       <c r="X392" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="393" spans="1:24">
@@ -30696,7 +30691,7 @@
       <c r="V393" s="3"/>
       <c r="W393" s="3"/>
       <c r="X393" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="394" spans="1:24">
@@ -30752,7 +30747,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
       <c r="X394" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="395" spans="1:24">
@@ -30808,7 +30803,7 @@
       <c r="V395" s="3"/>
       <c r="W395" s="3"/>
       <c r="X395" s="3" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="396" spans="1:24">
@@ -30864,7 +30859,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
       <c r="X396" s="2" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="397" spans="1:24">
@@ -30920,7 +30915,7 @@
       <c r="V397" s="3"/>
       <c r="W397" s="3"/>
       <c r="X397" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="398" spans="1:24">
@@ -30976,7 +30971,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
       <c r="X398" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="399" spans="1:24">
@@ -31036,7 +31031,7 @@
       <c r="V399" s="3"/>
       <c r="W399" s="3"/>
       <c r="X399" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="400" spans="1:24">
@@ -31092,7 +31087,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
       <c r="X400" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="401" spans="1:24">
@@ -31148,7 +31143,7 @@
       <c r="V401" s="3"/>
       <c r="W401" s="3"/>
       <c r="X401" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -31204,7 +31199,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
       <c r="X402" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="403" spans="1:24">
@@ -31260,7 +31255,7 @@
       <c r="V403" s="3"/>
       <c r="W403" s="3"/>
       <c r="X403" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="404" spans="1:24">
@@ -31316,7 +31311,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
       <c r="X404" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="405" spans="1:24">
@@ -31372,7 +31367,7 @@
       <c r="V405" s="3"/>
       <c r="W405" s="3"/>
       <c r="X405" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="406" spans="1:24">
@@ -31428,7 +31423,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
       <c r="X406" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -31484,7 +31479,7 @@
       <c r="V407" s="3"/>
       <c r="W407" s="3"/>
       <c r="X407" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -31540,7 +31535,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
       <c r="X408" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="409" spans="1:24">
@@ -31596,7 +31591,7 @@
       <c r="V409" s="3"/>
       <c r="W409" s="3"/>
       <c r="X409" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="410" spans="1:24">
@@ -31652,7 +31647,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
       <c r="X410" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="411" spans="1:24">
@@ -31708,7 +31703,7 @@
       <c r="V411" s="3"/>
       <c r="W411" s="3"/>
       <c r="X411" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="412" spans="1:24">
@@ -31764,7 +31759,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
       <c r="X412" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="413" spans="1:24">
@@ -31820,7 +31815,7 @@
       <c r="V413" s="3"/>
       <c r="W413" s="3"/>
       <c r="X413" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="414" spans="1:24">
@@ -31876,7 +31871,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
       <c r="X414" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="415" spans="1:24">
@@ -31932,7 +31927,7 @@
       <c r="V415" s="3"/>
       <c r="W415" s="3"/>
       <c r="X415" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="416" spans="1:24">
@@ -31986,7 +31981,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
       <c r="X416" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="417" spans="1:24">
@@ -32040,7 +32035,7 @@
       <c r="V417" s="3"/>
       <c r="W417" s="3"/>
       <c r="X417" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="418" spans="1:24">
@@ -32094,7 +32089,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
       <c r="X418" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="419" spans="1:24">
@@ -32148,7 +32143,7 @@
       <c r="V419" s="3"/>
       <c r="W419" s="3"/>
       <c r="X419" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="420" spans="1:24">
@@ -32202,7 +32197,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
       <c r="X420" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="421" spans="1:24">
@@ -32260,7 +32255,7 @@
       <c r="V421" s="3"/>
       <c r="W421" s="3"/>
       <c r="X421" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="422" spans="1:24">
@@ -32314,7 +32309,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
       <c r="X422" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="423" spans="1:24">
@@ -32368,7 +32363,7 @@
       <c r="V423" s="3"/>
       <c r="W423" s="3"/>
       <c r="X423" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="424" spans="1:24">
@@ -32424,7 +32419,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
       <c r="X424" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="425" spans="1:24">
@@ -32480,7 +32475,7 @@
       <c r="V425" s="3"/>
       <c r="W425" s="3"/>
       <c r="X425" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="426" spans="1:24">
@@ -32536,7 +32531,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
       <c r="X426" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -32592,7 +32587,7 @@
       <c r="V427" s="3"/>
       <c r="W427" s="3"/>
       <c r="X427" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="428" spans="1:24">
@@ -32648,7 +32643,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
       <c r="X428" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="429" spans="1:24">
@@ -32704,7 +32699,7 @@
       <c r="V429" s="3"/>
       <c r="W429" s="3"/>
       <c r="X429" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="430" spans="1:24">
@@ -32760,7 +32755,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
       <c r="X430" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="431" spans="1:24">
@@ -32814,7 +32809,7 @@
       <c r="V431" s="3"/>
       <c r="W431" s="3"/>
       <c r="X431" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="432" spans="1:24">
@@ -32870,7 +32865,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
       <c r="X432" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="433" spans="1:24">
@@ -32924,7 +32919,7 @@
       <c r="V433" s="3"/>
       <c r="W433" s="3"/>
       <c r="X433" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="434" spans="1:24">
@@ -32978,7 +32973,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
       <c r="X434" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="435" spans="1:24">
@@ -33032,7 +33027,7 @@
       <c r="V435" s="3"/>
       <c r="W435" s="3"/>
       <c r="X435" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="436" spans="1:24">
@@ -33086,7 +33081,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
       <c r="X436" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="437" spans="1:24">
@@ -33140,7 +33135,7 @@
       <c r="V437" s="3"/>
       <c r="W437" s="3"/>
       <c r="X437" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="438" spans="1:24">
@@ -33194,7 +33189,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
       <c r="X438" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="439" spans="1:24">
@@ -33248,7 +33243,7 @@
       <c r="V439" s="3"/>
       <c r="W439" s="3"/>
       <c r="X439" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="440" spans="1:24">
@@ -33304,7 +33299,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
       <c r="X440" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="441" spans="1:24">
@@ -33360,7 +33355,7 @@
       <c r="V441" s="3"/>
       <c r="W441" s="3"/>
       <c r="X441" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="442" spans="1:24">
@@ -33416,7 +33411,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
       <c r="X442" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="443" spans="1:24">
@@ -33472,7 +33467,7 @@
       <c r="V443" s="3"/>
       <c r="W443" s="3"/>
       <c r="X443" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="444" spans="1:24">
@@ -33528,7 +33523,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
       <c r="X444" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="445" spans="1:24">
@@ -33584,7 +33579,7 @@
       <c r="V445" s="3"/>
       <c r="W445" s="3"/>
       <c r="X445" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="446" spans="1:24">
@@ -33640,7 +33635,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
       <c r="X446" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="447" spans="1:24">
@@ -33700,7 +33695,7 @@
       <c r="V447" s="3"/>
       <c r="W447" s="3"/>
       <c r="X447" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="448" spans="1:24">
@@ -33756,7 +33751,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
       <c r="X448" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="449" spans="1:24">
@@ -33812,7 +33807,7 @@
       <c r="V449" s="3"/>
       <c r="W449" s="3"/>
       <c r="X449" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="450" spans="1:24">
@@ -33868,7 +33863,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
       <c r="X450" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -33924,7 +33919,7 @@
       <c r="V451" s="3"/>
       <c r="W451" s="3"/>
       <c r="X451" s="3" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="452" spans="1:24">
@@ -33980,7 +33975,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
       <c r="X452" s="2" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="453" spans="1:24">
@@ -34040,7 +34035,7 @@
       <c r="V453" s="3"/>
       <c r="W453" s="3"/>
       <c r="X453" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="454" spans="1:24">
@@ -34100,7 +34095,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
       <c r="X454" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="455" spans="1:24">
@@ -34160,7 +34155,7 @@
       <c r="V455" s="3"/>
       <c r="W455" s="3"/>
       <c r="X455" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="456" spans="1:24">
@@ -34220,7 +34215,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
       <c r="X456" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="457" spans="1:24">
@@ -34280,7 +34275,7 @@
       <c r="V457" s="3"/>
       <c r="W457" s="3"/>
       <c r="X457" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="458" spans="1:24">
@@ -34340,7 +34335,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
       <c r="X458" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="459" spans="1:24">
@@ -34400,7 +34395,7 @@
       <c r="V459" s="3"/>
       <c r="W459" s="3"/>
       <c r="X459" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="460" spans="1:24">
@@ -34458,7 +34453,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
       <c r="X460" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="461" spans="1:24">
@@ -34510,7 +34505,7 @@
       <c r="V461" s="3"/>
       <c r="W461" s="3"/>
       <c r="X461" s="3" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="462" spans="1:24">
@@ -34571,12 +34566,12 @@
         <v>6.79</v>
       </c>
       <c r="U462" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
       <c r="X462" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="463" spans="1:24">
@@ -34635,12 +34630,12 @@
         <v>6.87</v>
       </c>
       <c r="U463" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V463" s="3"/>
       <c r="W463" s="3"/>
       <c r="X463" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="464" spans="1:24">
@@ -34699,12 +34694,12 @@
         <v>6.88</v>
       </c>
       <c r="U464" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
       <c r="X464" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="465" spans="1:24">
@@ -34763,12 +34758,12 @@
         <v>6.89</v>
       </c>
       <c r="U465" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V465" s="3"/>
       <c r="W465" s="3"/>
       <c r="X465" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="466" spans="1:24">
@@ -34827,12 +34822,12 @@
         <v>6.8</v>
       </c>
       <c r="U466" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
       <c r="X466" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="467" spans="1:24">
@@ -34891,12 +34886,12 @@
         <v>6.81</v>
       </c>
       <c r="U467" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V467" s="3"/>
       <c r="W467" s="3"/>
       <c r="X467" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="468" spans="1:24">
@@ -34955,12 +34950,12 @@
         <v>6.82</v>
       </c>
       <c r="U468" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
       <c r="X468" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="469" spans="1:24">
@@ -35019,12 +35014,12 @@
         <v>6.83</v>
       </c>
       <c r="U469" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V469" s="3"/>
       <c r="W469" s="3"/>
       <c r="X469" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="470" spans="1:24">
@@ -35080,7 +35075,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
       <c r="X470" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="471" spans="1:24">
@@ -35139,12 +35134,12 @@
         <v>6.85</v>
       </c>
       <c r="U471" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V471" s="3"/>
       <c r="W471" s="3"/>
       <c r="X471" s="3" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="472" spans="1:24">
@@ -35203,12 +35198,12 @@
         <v>6.86</v>
       </c>
       <c r="U472" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
       <c r="X472" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="473" spans="1:24">
@@ -35262,7 +35257,7 @@
       <c r="V473" s="3"/>
       <c r="W473" s="3"/>
       <c r="X473" s="3" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="474" spans="1:24">
@@ -35302,7 +35297,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
       <c r="X474" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="475" spans="1:24">
@@ -35360,7 +35355,7 @@
       <c r="V475" s="3"/>
       <c r="W475" s="3"/>
       <c r="X475" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="476" spans="1:24">
@@ -35418,7 +35413,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
       <c r="X476" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="477" spans="1:24">
@@ -35476,7 +35471,7 @@
       <c r="V477" s="3"/>
       <c r="W477" s="3"/>
       <c r="X477" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="478" spans="1:24">
@@ -35516,7 +35511,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
       <c r="X478" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="479" spans="1:24">
@@ -35574,7 +35569,7 @@
       <c r="V479" s="3"/>
       <c r="W479" s="3"/>
       <c r="X479" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="480" spans="1:24">
@@ -35632,7 +35627,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
       <c r="X480" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="481" spans="1:24">
@@ -35690,7 +35685,7 @@
       <c r="V481" s="3"/>
       <c r="W481" s="3"/>
       <c r="X481" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="482" spans="1:24">
@@ -35748,7 +35743,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
       <c r="X482" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="483" spans="1:24">
@@ -35806,7 +35801,7 @@
       <c r="V483" s="3"/>
       <c r="W483" s="3"/>
       <c r="X483" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="484" spans="1:24">
@@ -35864,7 +35859,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
       <c r="X484" s="2" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="485" spans="1:24">
@@ -35922,7 +35917,7 @@
       <c r="V485" s="3"/>
       <c r="W485" s="3"/>
       <c r="X485" s="3" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="486" spans="1:24">
@@ -35982,7 +35977,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
       <c r="X486" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="487" spans="1:24">
@@ -36042,7 +36037,7 @@
       <c r="V487" s="3"/>
       <c r="W487" s="3"/>
       <c r="X487" s="3" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="488" spans="1:24">
@@ -36102,7 +36097,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
       <c r="X488" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -36162,7 +36157,7 @@
       <c r="V489" s="3"/>
       <c r="W489" s="3"/>
       <c r="X489" s="3" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="490" spans="1:24">
@@ -36222,7 +36217,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
       <c r="X490" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="491" spans="1:24">
@@ -36278,7 +36273,7 @@
       <c r="V491" s="3"/>
       <c r="W491" s="3"/>
       <c r="X491" s="3" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="492" spans="1:24">
@@ -36336,7 +36331,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
       <c r="X492" s="2" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="493" spans="1:24">
@@ -36394,7 +36389,7 @@
       <c r="V493" s="3"/>
       <c r="W493" s="3"/>
       <c r="X493" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="494" spans="1:24">
@@ -36452,7 +36447,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
       <c r="X494" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="495" spans="1:24">
@@ -36510,7 +36505,7 @@
       <c r="V495" s="3"/>
       <c r="W495" s="3"/>
       <c r="X495" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="496" spans="1:24">
@@ -36568,7 +36563,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
       <c r="X496" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="497" spans="1:24">
@@ -36624,7 +36619,7 @@
       <c r="V497" s="3"/>
       <c r="W497" s="3"/>
       <c r="X497" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="498" spans="1:24">
@@ -36682,7 +36677,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
       <c r="X498" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="499" spans="1:24">
@@ -36740,7 +36735,7 @@
       <c r="V499" s="3"/>
       <c r="W499" s="3"/>
       <c r="X499" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="500" spans="1:24">
@@ -36798,7 +36793,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
       <c r="X500" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="501" spans="1:24">
@@ -36856,7 +36851,7 @@
       <c r="V501" s="3"/>
       <c r="W501" s="3"/>
       <c r="X501" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="502" spans="1:24">
@@ -36914,7 +36909,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
       <c r="X502" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="503" spans="1:24">
@@ -36972,7 +36967,7 @@
       <c r="V503" s="3"/>
       <c r="W503" s="3"/>
       <c r="X503" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="504" spans="1:24">
@@ -37030,7 +37025,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
       <c r="X504" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="505" spans="1:24">
@@ -37088,7 +37083,7 @@
       <c r="V505" s="3"/>
       <c r="W505" s="3"/>
       <c r="X505" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="506" spans="1:24">
@@ -37146,7 +37141,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
       <c r="X506" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="507" spans="1:24">
@@ -37204,7 +37199,7 @@
       <c r="V507" s="3"/>
       <c r="W507" s="3"/>
       <c r="X507" s="3" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="508" spans="1:24">
@@ -37266,7 +37261,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
       <c r="X508" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="509" spans="1:24">
@@ -37322,7 +37317,7 @@
       <c r="V509" s="3"/>
       <c r="W509" s="3"/>
       <c r="X509" s="3" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="510" spans="1:24">
@@ -37378,7 +37373,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
       <c r="X510" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="511" spans="1:24">
@@ -37434,7 +37429,7 @@
       <c r="V511" s="3"/>
       <c r="W511" s="3"/>
       <c r="X511" s="3" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="512" spans="1:24">
@@ -37490,7 +37485,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
       <c r="X512" s="2" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="513" spans="1:24">
@@ -37550,7 +37545,7 @@
       <c r="V513" s="3"/>
       <c r="W513" s="3"/>
       <c r="X513" s="3" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="514" spans="1:24">
@@ -37610,7 +37605,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
       <c r="X514" s="2" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="515" spans="1:24">
@@ -37670,7 +37665,7 @@
       <c r="V515" s="3"/>
       <c r="W515" s="3"/>
       <c r="X515" s="3" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="516" spans="1:24">
@@ -37730,7 +37725,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
       <c r="X516" s="2" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="517" spans="1:24">
@@ -37788,7 +37783,7 @@
       <c r="V517" s="3"/>
       <c r="W517" s="3"/>
       <c r="X517" s="3" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="518" spans="1:24">
@@ -37846,7 +37841,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
       <c r="X518" s="2" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="519" spans="1:24">
@@ -37904,7 +37899,7 @@
       <c r="V519" s="3"/>
       <c r="W519" s="3"/>
       <c r="X519" s="3" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="520" spans="1:24">
@@ -37962,7 +37957,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
       <c r="X520" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="521" spans="1:24">
@@ -38020,7 +38015,7 @@
       <c r="V521" s="3"/>
       <c r="W521" s="3"/>
       <c r="X521" s="3" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="522" spans="1:24">
@@ -38078,7 +38073,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
       <c r="X522" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="523" spans="1:24">
@@ -38136,7 +38131,7 @@
       <c r="V523" s="3"/>
       <c r="W523" s="3"/>
       <c r="X523" s="3" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="524" spans="1:24">
@@ -38194,7 +38189,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
       <c r="X524" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="525" spans="1:24">
@@ -38252,7 +38247,7 @@
       <c r="V525" s="3"/>
       <c r="W525" s="3"/>
       <c r="X525" s="3" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="526" spans="1:24">
@@ -38310,7 +38305,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
       <c r="X526" s="2" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="527" spans="1:24">
@@ -38368,7 +38363,7 @@
       <c r="V527" s="3"/>
       <c r="W527" s="3"/>
       <c r="X527" s="3" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="528" spans="1:24">
@@ -38424,7 +38419,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
       <c r="X528" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="529" spans="1:24">
@@ -38476,7 +38471,7 @@
       <c r="V529" s="3"/>
       <c r="W529" s="3"/>
       <c r="X529" s="3" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="530" spans="1:24">
@@ -38534,7 +38529,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
       <c r="X530" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="531" spans="1:24">
@@ -38592,7 +38587,7 @@
       <c r="V531" s="3"/>
       <c r="W531" s="3"/>
       <c r="X531" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="532" spans="1:24">
@@ -38650,7 +38645,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
       <c r="X532" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="533" spans="1:24">
@@ -38708,7 +38703,7 @@
       <c r="V533" s="3"/>
       <c r="W533" s="3"/>
       <c r="X533" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="534" spans="1:24">
@@ -38766,7 +38761,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
       <c r="X534" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="535" spans="1:24">
@@ -38824,7 +38819,7 @@
       <c r="V535" s="3"/>
       <c r="W535" s="3"/>
       <c r="X535" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="536" spans="1:24">
@@ -38882,7 +38877,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
       <c r="X536" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="537" spans="1:24">
@@ -38940,7 +38935,7 @@
       <c r="V537" s="3"/>
       <c r="W537" s="3"/>
       <c r="X537" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="538" spans="1:24">
@@ -38998,7 +38993,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
       <c r="X538" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="539" spans="1:24">
@@ -39056,7 +39051,7 @@
       <c r="V539" s="3"/>
       <c r="W539" s="3"/>
       <c r="X539" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="540" spans="1:24">
@@ -39114,7 +39109,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
       <c r="X540" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="541" spans="1:24">
@@ -39172,7 +39167,7 @@
       <c r="V541" s="3"/>
       <c r="W541" s="3"/>
       <c r="X541" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="542" spans="1:24">
@@ -39230,7 +39225,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
       <c r="X542" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="543" spans="1:24">
@@ -39288,7 +39283,7 @@
       <c r="V543" s="3"/>
       <c r="W543" s="3"/>
       <c r="X543" s="3" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="544" spans="1:24">
@@ -39346,7 +39341,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
       <c r="X544" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="545" spans="1:24">
@@ -39404,7 +39399,7 @@
       <c r="V545" s="3"/>
       <c r="W545" s="3"/>
       <c r="X545" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="546" spans="1:24">
@@ -39462,7 +39457,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
       <c r="X546" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="547" spans="1:24">
@@ -39520,7 +39515,7 @@
       <c r="V547" s="3"/>
       <c r="W547" s="3"/>
       <c r="X547" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="548" spans="1:24">
@@ -39578,7 +39573,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
       <c r="X548" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="549" spans="1:24">
@@ -39636,7 +39631,7 @@
       <c r="V549" s="3"/>
       <c r="W549" s="3"/>
       <c r="X549" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="550" spans="1:24">
@@ -39694,7 +39689,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
       <c r="X550" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="551" spans="1:24">
@@ -39752,7 +39747,7 @@
       <c r="V551" s="3"/>
       <c r="W551" s="3"/>
       <c r="X551" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="552" spans="1:24">
@@ -39810,7 +39805,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
       <c r="X552" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="553" spans="1:24">
@@ -39868,7 +39863,7 @@
       <c r="V553" s="3"/>
       <c r="W553" s="3"/>
       <c r="X553" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="554" spans="1:24">
@@ -39926,7 +39921,7 @@
       <c r="V554" s="2"/>
       <c r="W554" s="2"/>
       <c r="X554" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="555" spans="1:24">
@@ -39984,7 +39979,7 @@
       <c r="V555" s="3"/>
       <c r="W555" s="3"/>
       <c r="X555" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="556" spans="1:24">
@@ -40042,7 +40037,7 @@
       <c r="V556" s="2"/>
       <c r="W556" s="2"/>
       <c r="X556" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="557" spans="1:24">
@@ -40100,7 +40095,7 @@
       <c r="V557" s="3"/>
       <c r="W557" s="3"/>
       <c r="X557" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="558" spans="1:24">
@@ -40158,7 +40153,7 @@
       <c r="V558" s="2"/>
       <c r="W558" s="2"/>
       <c r="X558" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="559" spans="1:24">
@@ -40216,7 +40211,7 @@
       <c r="V559" s="3"/>
       <c r="W559" s="3"/>
       <c r="X559" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="560" spans="1:24">
@@ -40274,7 +40269,7 @@
       <c r="V560" s="2"/>
       <c r="W560" s="2"/>
       <c r="X560" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="561" spans="1:24">
@@ -40332,7 +40327,7 @@
       <c r="V561" s="3"/>
       <c r="W561" s="3"/>
       <c r="X561" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="562" spans="1:24">
@@ -40390,7 +40385,7 @@
       <c r="V562" s="2"/>
       <c r="W562" s="2"/>
       <c r="X562" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="563" spans="1:24">
@@ -40448,7 +40443,7 @@
       <c r="V563" s="3"/>
       <c r="W563" s="3"/>
       <c r="X563" s="3" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="564" spans="1:24">
@@ -40506,7 +40501,7 @@
       <c r="V564" s="2"/>
       <c r="W564" s="2"/>
       <c r="X564" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="565" spans="1:24">
@@ -40564,7 +40559,7 @@
       <c r="V565" s="3"/>
       <c r="W565" s="3"/>
       <c r="X565" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="566" spans="1:24">
@@ -40622,7 +40617,7 @@
       <c r="V566" s="2"/>
       <c r="W566" s="2"/>
       <c r="X566" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="567" spans="1:24">
@@ -40680,7 +40675,7 @@
       <c r="V567" s="3"/>
       <c r="W567" s="3"/>
       <c r="X567" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="568" spans="1:24">
@@ -40738,7 +40733,7 @@
       <c r="V568" s="2"/>
       <c r="W568" s="2"/>
       <c r="X568" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="569" spans="1:24">
@@ -40796,7 +40791,7 @@
       <c r="V569" s="3"/>
       <c r="W569" s="3"/>
       <c r="X569" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="570" spans="1:24">
@@ -40854,7 +40849,7 @@
       <c r="V570" s="2"/>
       <c r="W570" s="2"/>
       <c r="X570" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="571" spans="1:24">
@@ -40912,7 +40907,7 @@
       <c r="V571" s="3"/>
       <c r="W571" s="3"/>
       <c r="X571" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="572" spans="1:24">
@@ -40970,7 +40965,7 @@
       <c r="V572" s="2"/>
       <c r="W572" s="2"/>
       <c r="X572" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="573" spans="1:24">
@@ -41028,7 +41023,7 @@
       <c r="V573" s="3"/>
       <c r="W573" s="3"/>
       <c r="X573" s="3" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="574" spans="1:24">
@@ -41086,7 +41081,7 @@
       <c r="V574" s="2"/>
       <c r="W574" s="2"/>
       <c r="X574" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="575" spans="1:24">
@@ -41144,7 +41139,7 @@
       <c r="V575" s="3"/>
       <c r="W575" s="3"/>
       <c r="X575" s="3" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="576" spans="1:24">
@@ -41202,7 +41197,7 @@
       <c r="V576" s="2"/>
       <c r="W576" s="2"/>
       <c r="X576" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="577" spans="1:24">
@@ -41260,7 +41255,7 @@
       <c r="V577" s="3"/>
       <c r="W577" s="3"/>
       <c r="X577" s="3" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="578" spans="1:24">
@@ -41318,7 +41313,7 @@
       <c r="V578" s="2"/>
       <c r="W578" s="2"/>
       <c r="X578" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="579" spans="1:24">
@@ -41370,7 +41365,7 @@
       <c r="V579" s="3"/>
       <c r="W579" s="3"/>
       <c r="X579" s="3" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="580" spans="1:24">
@@ -41422,7 +41417,7 @@
       <c r="V580" s="2"/>
       <c r="W580" s="2"/>
       <c r="X580" s="2" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="581" spans="1:24">
@@ -41474,7 +41469,7 @@
       <c r="V581" s="3"/>
       <c r="W581" s="3"/>
       <c r="X581" s="3" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="582" spans="1:24">
@@ -41526,7 +41521,7 @@
       <c r="V582" s="2"/>
       <c r="W582" s="2"/>
       <c r="X582" s="2" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="583" spans="1:24">
@@ -41586,7 +41581,7 @@
       <c r="V583" s="3"/>
       <c r="W583" s="3"/>
       <c r="X583" s="3" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="584" spans="1:24">
@@ -41626,7 +41621,7 @@
       <c r="V584" s="2"/>
       <c r="W584" s="2"/>
       <c r="X584" s="2" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="585" spans="1:24">
@@ -41682,7 +41677,7 @@
       <c r="V585" s="3"/>
       <c r="W585" s="3"/>
       <c r="X585" s="3" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="586" spans="1:24">
@@ -41746,7 +41741,7 @@
       <c r="V586" s="2"/>
       <c r="W586" s="2"/>
       <c r="X586" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="587" spans="1:24">
@@ -41804,7 +41799,7 @@
       <c r="V587" s="3"/>
       <c r="W587" s="3"/>
       <c r="X587" s="3" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="588" spans="1:24">
@@ -41862,7 +41857,7 @@
       <c r="V588" s="2"/>
       <c r="W588" s="2"/>
       <c r="X588" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="589" spans="1:24">
@@ -41922,7 +41917,7 @@
       <c r="V589" s="3"/>
       <c r="W589" s="3"/>
       <c r="X589" s="3" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="590" spans="1:24">
@@ -41982,7 +41977,7 @@
       <c r="V590" s="2"/>
       <c r="W590" s="2"/>
       <c r="X590" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="591" spans="1:24">
@@ -42042,7 +42037,7 @@
       <c r="V591" s="3"/>
       <c r="W591" s="3"/>
       <c r="X591" s="3" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="592" spans="1:24">
@@ -42102,7 +42097,7 @@
       <c r="V592" s="2"/>
       <c r="W592" s="2"/>
       <c r="X592" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="593" spans="1:24">
@@ -42162,7 +42157,7 @@
       <c r="V593" s="3"/>
       <c r="W593" s="3"/>
       <c r="X593" s="3" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="594" spans="1:24">
@@ -42222,7 +42217,7 @@
       <c r="V594" s="2"/>
       <c r="W594" s="2"/>
       <c r="X594" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="595" spans="1:24">
@@ -42282,7 +42277,7 @@
       <c r="V595" s="3"/>
       <c r="W595" s="3"/>
       <c r="X595" s="3" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="596" spans="1:24">
@@ -42342,7 +42337,7 @@
       <c r="V596" s="2"/>
       <c r="W596" s="2"/>
       <c r="X596" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="597" spans="1:24">
@@ -42400,7 +42395,7 @@
       <c r="V597" s="3"/>
       <c r="W597" s="3"/>
       <c r="X597" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="598" spans="1:24">
@@ -42458,7 +42453,7 @@
       <c r="V598" s="2"/>
       <c r="W598" s="2"/>
       <c r="X598" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="599" spans="1:24">
@@ -42516,7 +42511,7 @@
       <c r="V599" s="3"/>
       <c r="W599" s="3"/>
       <c r="X599" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="600" spans="1:24">
@@ -42574,7 +42569,7 @@
       <c r="V600" s="2"/>
       <c r="W600" s="2"/>
       <c r="X600" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="601" spans="1:24">
@@ -42632,7 +42627,7 @@
       <c r="V601" s="3"/>
       <c r="W601" s="3"/>
       <c r="X601" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="602" spans="1:24">
@@ -42690,7 +42685,7 @@
       <c r="V602" s="2"/>
       <c r="W602" s="2"/>
       <c r="X602" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="603" spans="1:24">
@@ -42748,7 +42743,7 @@
       <c r="V603" s="3"/>
       <c r="W603" s="3"/>
       <c r="X603" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="604" spans="1:24">
@@ -42806,7 +42801,7 @@
       <c r="V604" s="2"/>
       <c r="W604" s="2"/>
       <c r="X604" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="605" spans="1:24">
@@ -42864,7 +42859,7 @@
       <c r="V605" s="3"/>
       <c r="W605" s="3"/>
       <c r="X605" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="606" spans="1:24">
@@ -42922,7 +42917,7 @@
       <c r="V606" s="2"/>
       <c r="W606" s="2"/>
       <c r="X606" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="607" spans="1:24">
@@ -42980,7 +42975,7 @@
       <c r="V607" s="3"/>
       <c r="W607" s="3"/>
       <c r="X607" s="3" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="608" spans="1:24">
@@ -43038,7 +43033,7 @@
       <c r="V608" s="2"/>
       <c r="W608" s="2"/>
       <c r="X608" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="609" spans="1:24">
@@ -43096,7 +43091,7 @@
       <c r="V609" s="3"/>
       <c r="W609" s="3"/>
       <c r="X609" s="3" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="610" spans="1:24">
@@ -43154,7 +43149,7 @@
       <c r="V610" s="2"/>
       <c r="W610" s="2"/>
       <c r="X610" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="611" spans="1:24">
@@ -43210,7 +43205,7 @@
       <c r="V611" s="3"/>
       <c r="W611" s="3"/>
       <c r="X611" s="3" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="612" spans="1:24">
@@ -43266,7 +43261,7 @@
       <c r="V612" s="2"/>
       <c r="W612" s="2"/>
       <c r="X612" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="613" spans="1:24">
@@ -43322,7 +43317,7 @@
       <c r="V613" s="3"/>
       <c r="W613" s="3"/>
       <c r="X613" s="3" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="614" spans="1:24">
@@ -43380,7 +43375,7 @@
       <c r="V614" s="2"/>
       <c r="W614" s="2"/>
       <c r="X614" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="615" spans="1:24">
@@ -43436,7 +43431,7 @@
       <c r="V615" s="3"/>
       <c r="W615" s="3"/>
       <c r="X615" s="3" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="616" spans="1:24">
@@ -43492,7 +43487,7 @@
       <c r="V616" s="2"/>
       <c r="W616" s="2"/>
       <c r="X616" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="617" spans="1:24">
@@ -43548,7 +43543,7 @@
       <c r="V617" s="3"/>
       <c r="W617" s="3"/>
       <c r="X617" s="3" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="618" spans="1:24">
@@ -43610,7 +43605,7 @@
       <c r="V618" s="2"/>
       <c r="W618" s="2"/>
       <c r="X618" s="2" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="619" spans="1:24">
@@ -43666,7 +43661,7 @@
       <c r="V619" s="3"/>
       <c r="W619" s="3"/>
       <c r="X619" s="3" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="620" spans="1:24">
@@ -43725,12 +43720,12 @@
       </c>
       <c r="T620" s="2"/>
       <c r="U620" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="V620" s="2"/>
       <c r="W620" s="2"/>
       <c r="X620" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="621" spans="1:24">
@@ -43789,12 +43784,12 @@
       </c>
       <c r="T621" s="3"/>
       <c r="U621" s="3" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="V621" s="3"/>
       <c r="W621" s="3"/>
       <c r="X621" s="3" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="622" spans="1:24">
@@ -43851,12 +43846,12 @@
       </c>
       <c r="T622" s="2"/>
       <c r="U622" s="2" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="V622" s="2"/>
       <c r="W622" s="2"/>
       <c r="X622" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="623" spans="1:24">
@@ -43912,7 +43907,7 @@
       <c r="V623" s="3"/>
       <c r="W623" s="3"/>
       <c r="X623" s="3" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="624" spans="1:24">
@@ -43968,7 +43963,7 @@
       <c r="V624" s="2"/>
       <c r="W624" s="2"/>
       <c r="X624" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="625" spans="1:24">
@@ -44024,7 +44019,7 @@
       <c r="V625" s="3"/>
       <c r="W625" s="3"/>
       <c r="X625" s="3" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="626" spans="1:24">
@@ -44080,7 +44075,7 @@
       <c r="V626" s="2"/>
       <c r="W626" s="2"/>
       <c r="X626" s="2" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="627" spans="1:24">
@@ -44136,7 +44131,7 @@
       <c r="V627" s="3"/>
       <c r="W627" s="3"/>
       <c r="X627" s="3" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="628" spans="1:24">
@@ -44192,7 +44187,7 @@
       <c r="V628" s="2"/>
       <c r="W628" s="2"/>
       <c r="X628" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="629" spans="1:24">
@@ -44248,7 +44243,7 @@
       <c r="V629" s="3"/>
       <c r="W629" s="3"/>
       <c r="X629" s="3" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="630" spans="1:24">
@@ -44304,7 +44299,7 @@
       <c r="V630" s="2"/>
       <c r="W630" s="2"/>
       <c r="X630" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="631" spans="1:24">
@@ -44354,7 +44349,7 @@
       <c r="V631" s="3"/>
       <c r="W631" s="3"/>
       <c r="X631" s="3" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="632" spans="1:24">
@@ -44404,7 +44399,7 @@
       <c r="V632" s="2"/>
       <c r="W632" s="2"/>
       <c r="X632" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="633" spans="1:24">
@@ -44464,7 +44459,7 @@
       <c r="V633" s="3"/>
       <c r="W633" s="3"/>
       <c r="X633" s="3" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="634" spans="1:24">
@@ -44520,7 +44515,7 @@
       <c r="V634" s="2"/>
       <c r="W634" s="2"/>
       <c r="X634" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="635" spans="1:24">
@@ -44576,7 +44571,7 @@
       <c r="V635" s="3"/>
       <c r="W635" s="3"/>
       <c r="X635" s="3" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="636" spans="1:24">
@@ -44632,7 +44627,7 @@
       <c r="V636" s="2"/>
       <c r="W636" s="2"/>
       <c r="X636" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="637" spans="1:24">
@@ -44688,7 +44683,7 @@
       <c r="V637" s="3"/>
       <c r="W637" s="3"/>
       <c r="X637" s="3" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="638" spans="1:24">
@@ -44744,7 +44739,7 @@
       <c r="V638" s="2"/>
       <c r="W638" s="2"/>
       <c r="X638" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="639" spans="1:24">
@@ -44796,7 +44791,7 @@
       <c r="V639" s="3"/>
       <c r="W639" s="3"/>
       <c r="X639" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="640" spans="1:24">
@@ -44848,7 +44843,7 @@
       <c r="V640" s="2"/>
       <c r="W640" s="2"/>
       <c r="X640" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="641" spans="1:24">
@@ -44900,7 +44895,7 @@
       <c r="V641" s="3"/>
       <c r="W641" s="3"/>
       <c r="X641" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="642" spans="1:24">
@@ -44952,7 +44947,7 @@
       <c r="V642" s="2"/>
       <c r="W642" s="2"/>
       <c r="X642" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="643" spans="1:24">
@@ -45004,7 +44999,7 @@
       <c r="V643" s="3"/>
       <c r="W643" s="3"/>
       <c r="X643" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="644" spans="1:24">
@@ -45056,7 +45051,7 @@
       <c r="V644" s="2"/>
       <c r="W644" s="2"/>
       <c r="X644" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="645" spans="1:24">
@@ -45108,7 +45103,7 @@
       <c r="V645" s="3"/>
       <c r="W645" s="3"/>
       <c r="X645" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="646" spans="1:24">
@@ -45160,7 +45155,7 @@
       <c r="V646" s="2"/>
       <c r="W646" s="2"/>
       <c r="X646" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="647" spans="1:24">
@@ -45212,7 +45207,7 @@
       <c r="V647" s="3"/>
       <c r="W647" s="3"/>
       <c r="X647" s="3" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="648" spans="1:24">
@@ -45264,7 +45259,7 @@
       <c r="V648" s="2"/>
       <c r="W648" s="2"/>
       <c r="X648" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="649" spans="1:24">
@@ -45316,7 +45311,7 @@
       <c r="V649" s="3"/>
       <c r="W649" s="3"/>
       <c r="X649" s="3" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="650" spans="1:24">
@@ -45368,7 +45363,7 @@
       <c r="V650" s="2"/>
       <c r="W650" s="2"/>
       <c r="X650" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="651" spans="1:24">
@@ -45420,7 +45415,7 @@
       <c r="V651" s="3"/>
       <c r="W651" s="3"/>
       <c r="X651" s="3" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="652" spans="1:24">
@@ -45472,7 +45467,7 @@
       <c r="V652" s="2"/>
       <c r="W652" s="2"/>
       <c r="X652" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="653" spans="1:24">
@@ -45520,7 +45515,7 @@
       <c r="V653" s="3"/>
       <c r="W653" s="3"/>
       <c r="X653" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="654" spans="1:24">
@@ -45568,7 +45563,7 @@
       <c r="V654" s="2"/>
       <c r="W654" s="2"/>
       <c r="X654" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="655" spans="1:24">
@@ -45616,7 +45611,7 @@
       <c r="V655" s="3"/>
       <c r="W655" s="3"/>
       <c r="X655" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="656" spans="1:24">
@@ -45664,7 +45659,7 @@
       <c r="V656" s="2"/>
       <c r="W656" s="2"/>
       <c r="X656" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="657" spans="1:24">
@@ -45712,7 +45707,7 @@
       <c r="V657" s="3"/>
       <c r="W657" s="3"/>
       <c r="X657" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="658" spans="1:24">
@@ -45760,7 +45755,7 @@
       <c r="V658" s="2"/>
       <c r="W658" s="2"/>
       <c r="X658" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="659" spans="1:24">
@@ -45808,7 +45803,7 @@
       <c r="V659" s="3"/>
       <c r="W659" s="3"/>
       <c r="X659" s="3" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="660" spans="1:24">
@@ -45856,7 +45851,7 @@
       <c r="V660" s="2"/>
       <c r="W660" s="2"/>
       <c r="X660" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="661" spans="1:24">
@@ -45904,7 +45899,7 @@
       <c r="V661" s="3"/>
       <c r="W661" s="3"/>
       <c r="X661" s="3" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="662" spans="1:24">
@@ -45952,7 +45947,7 @@
       <c r="V662" s="2"/>
       <c r="W662" s="2"/>
       <c r="X662" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="663" spans="1:24">
@@ -46000,7 +45995,7 @@
       <c r="V663" s="3"/>
       <c r="W663" s="3"/>
       <c r="X663" s="3" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="664" spans="1:24">
@@ -46048,7 +46043,7 @@
       <c r="V664" s="2"/>
       <c r="W664" s="2"/>
       <c r="X664" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="665" spans="1:24">
@@ -46098,7 +46093,7 @@
       <c r="V665" s="3"/>
       <c r="W665" s="3"/>
       <c r="X665" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="666" spans="1:24">
@@ -46148,7 +46143,7 @@
       <c r="V666" s="2"/>
       <c r="W666" s="2"/>
       <c r="X666" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="667" spans="1:24">
@@ -46198,7 +46193,7 @@
       <c r="V667" s="3"/>
       <c r="W667" s="3"/>
       <c r="X667" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="668" spans="1:24">
@@ -46248,7 +46243,7 @@
       <c r="V668" s="2"/>
       <c r="W668" s="2"/>
       <c r="X668" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="669" spans="1:24">
@@ -46298,7 +46293,7 @@
       <c r="V669" s="3"/>
       <c r="W669" s="3"/>
       <c r="X669" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="670" spans="1:24">
@@ -46348,7 +46343,7 @@
       <c r="V670" s="2"/>
       <c r="W670" s="2"/>
       <c r="X670" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="671" spans="1:24">
@@ -46398,7 +46393,7 @@
       <c r="V671" s="3"/>
       <c r="W671" s="3"/>
       <c r="X671" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="672" spans="1:24">
@@ -46448,7 +46443,7 @@
       <c r="V672" s="2"/>
       <c r="W672" s="2"/>
       <c r="X672" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="673" spans="1:24">
@@ -46498,7 +46493,7 @@
       <c r="V673" s="3"/>
       <c r="W673" s="3"/>
       <c r="X673" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="674" spans="1:24">
@@ -46548,7 +46543,7 @@
       <c r="V674" s="2"/>
       <c r="W674" s="2"/>
       <c r="X674" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="675" spans="1:24">
@@ -46592,7 +46587,7 @@
       <c r="V675" s="3"/>
       <c r="W675" s="3"/>
       <c r="X675" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="676" spans="1:24">
@@ -46636,7 +46631,7 @@
       <c r="V676" s="2"/>
       <c r="W676" s="2"/>
       <c r="X676" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="677" spans="1:24">
@@ -46680,7 +46675,7 @@
       <c r="V677" s="3"/>
       <c r="W677" s="3"/>
       <c r="X677" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="678" spans="1:24">
@@ -46724,7 +46719,7 @@
       <c r="V678" s="2"/>
       <c r="W678" s="2"/>
       <c r="X678" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="679" spans="1:24">
@@ -46768,7 +46763,7 @@
       <c r="V679" s="3"/>
       <c r="W679" s="3"/>
       <c r="X679" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="680" spans="1:24">
@@ -46812,7 +46807,7 @@
       <c r="V680" s="2"/>
       <c r="W680" s="2"/>
       <c r="X680" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="681" spans="1:24">
@@ -46856,7 +46851,7 @@
       <c r="V681" s="3"/>
       <c r="W681" s="3"/>
       <c r="X681" s="3" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="682" spans="1:24">
@@ -46906,7 +46901,7 @@
       <c r="V682" s="2"/>
       <c r="W682" s="2"/>
       <c r="X682" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="683" spans="1:24">
@@ -46956,7 +46951,7 @@
       <c r="V683" s="3"/>
       <c r="W683" s="3"/>
       <c r="X683" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="684" spans="1:24">
@@ -47006,7 +47001,7 @@
       <c r="V684" s="2"/>
       <c r="W684" s="2"/>
       <c r="X684" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="685" spans="1:24">
@@ -47056,7 +47051,7 @@
       <c r="V685" s="3"/>
       <c r="W685" s="3"/>
       <c r="X685" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="686" spans="1:24">
@@ -47106,7 +47101,7 @@
       <c r="V686" s="2"/>
       <c r="W686" s="2"/>
       <c r="X686" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="687" spans="1:24">
@@ -47156,7 +47151,7 @@
       <c r="V687" s="3"/>
       <c r="W687" s="3"/>
       <c r="X687" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="688" spans="1:24">
@@ -47206,7 +47201,7 @@
       <c r="V688" s="2"/>
       <c r="W688" s="2"/>
       <c r="X688" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="689" spans="1:24">
@@ -47256,7 +47251,7 @@
       <c r="V689" s="3"/>
       <c r="W689" s="3"/>
       <c r="X689" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="690" spans="1:24">
@@ -47306,7 +47301,7 @@
       <c r="V690" s="2"/>
       <c r="W690" s="2"/>
       <c r="X690" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="691" spans="1:24">
@@ -47356,7 +47351,7 @@
       <c r="V691" s="3"/>
       <c r="W691" s="3"/>
       <c r="X691" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="692" spans="1:24">
@@ -47406,7 +47401,7 @@
       <c r="V692" s="2"/>
       <c r="W692" s="2"/>
       <c r="X692" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="693" spans="1:24">
@@ -47456,7 +47451,7 @@
       <c r="V693" s="3"/>
       <c r="W693" s="3"/>
       <c r="X693" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="694" spans="1:24">
@@ -47506,7 +47501,7 @@
       <c r="V694" s="2"/>
       <c r="W694" s="2"/>
       <c r="X694" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="695" spans="1:24">
@@ -47556,7 +47551,7 @@
       <c r="V695" s="3"/>
       <c r="W695" s="3"/>
       <c r="X695" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="696" spans="1:24">
@@ -47606,7 +47601,7 @@
       <c r="V696" s="2"/>
       <c r="W696" s="2"/>
       <c r="X696" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="697" spans="1:24">
@@ -47656,7 +47651,7 @@
       <c r="V697" s="3"/>
       <c r="W697" s="3"/>
       <c r="X697" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="698" spans="1:24">
@@ -47706,7 +47701,7 @@
       <c r="V698" s="2"/>
       <c r="W698" s="2"/>
       <c r="X698" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="699" spans="1:24">
@@ -47756,7 +47751,7 @@
       <c r="V699" s="3"/>
       <c r="W699" s="3"/>
       <c r="X699" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="700" spans="1:24">
@@ -47806,7 +47801,7 @@
       <c r="V700" s="2"/>
       <c r="W700" s="2"/>
       <c r="X700" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="701" spans="1:24">
@@ -47856,7 +47851,7 @@
       <c r="V701" s="3"/>
       <c r="W701" s="3"/>
       <c r="X701" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="702" spans="1:24">
@@ -47906,7 +47901,7 @@
       <c r="V702" s="2"/>
       <c r="W702" s="2"/>
       <c r="X702" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="703" spans="1:24">
@@ -47956,7 +47951,7 @@
       <c r="V703" s="3"/>
       <c r="W703" s="3"/>
       <c r="X703" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="704" spans="1:24">
@@ -48006,7 +48001,7 @@
       <c r="V704" s="2"/>
       <c r="W704" s="2"/>
       <c r="X704" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="705" spans="1:24">
@@ -48056,7 +48051,7 @@
       <c r="V705" s="3"/>
       <c r="W705" s="3"/>
       <c r="X705" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="706" spans="1:24">
@@ -48106,7 +48101,7 @@
       <c r="V706" s="2"/>
       <c r="W706" s="2"/>
       <c r="X706" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="707" spans="1:24">
@@ -48154,7 +48149,7 @@
       <c r="V707" s="3"/>
       <c r="W707" s="3"/>
       <c r="X707" s="3" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="708" spans="1:24">
@@ -48204,7 +48199,7 @@
       <c r="V708" s="2"/>
       <c r="W708" s="2"/>
       <c r="X708" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="709" spans="1:24">
@@ -48254,7 +48249,7 @@
       <c r="V709" s="3"/>
       <c r="W709" s="3"/>
       <c r="X709" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="710" spans="1:24">
@@ -48304,7 +48299,7 @@
       <c r="V710" s="2"/>
       <c r="W710" s="2"/>
       <c r="X710" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="711" spans="1:24">
@@ -48354,7 +48349,7 @@
       <c r="V711" s="3"/>
       <c r="W711" s="3"/>
       <c r="X711" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="712" spans="1:24">
@@ -48404,7 +48399,7 @@
       <c r="V712" s="2"/>
       <c r="W712" s="2"/>
       <c r="X712" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="713" spans="1:24">
@@ -48454,7 +48449,7 @@
       <c r="V713" s="3"/>
       <c r="W713" s="3"/>
       <c r="X713" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="714" spans="1:24">
@@ -48504,7 +48499,7 @@
       <c r="V714" s="2"/>
       <c r="W714" s="2"/>
       <c r="X714" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="715" spans="1:24">
@@ -48554,7 +48549,7 @@
       <c r="V715" s="3"/>
       <c r="W715" s="3"/>
       <c r="X715" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="716" spans="1:24">
@@ -48604,7 +48599,7 @@
       <c r="V716" s="2"/>
       <c r="W716" s="2"/>
       <c r="X716" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="717" spans="1:24">
@@ -48654,7 +48649,7 @@
       <c r="V717" s="3"/>
       <c r="W717" s="3"/>
       <c r="X717" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="718" spans="1:24">
@@ -48704,7 +48699,7 @@
       <c r="V718" s="2"/>
       <c r="W718" s="2"/>
       <c r="X718" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="719" spans="1:24">
@@ -48754,7 +48749,7 @@
       <c r="V719" s="3"/>
       <c r="W719" s="3"/>
       <c r="X719" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="720" spans="1:24">
@@ -48804,7 +48799,7 @@
       <c r="V720" s="2"/>
       <c r="W720" s="2"/>
       <c r="X720" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="721" spans="1:24">
@@ -48854,7 +48849,7 @@
       <c r="V721" s="3"/>
       <c r="W721" s="3"/>
       <c r="X721" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="722" spans="1:24">
@@ -48904,7 +48899,7 @@
       <c r="V722" s="2"/>
       <c r="W722" s="2"/>
       <c r="X722" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="723" spans="1:24">
@@ -48954,7 +48949,7 @@
       <c r="V723" s="3"/>
       <c r="W723" s="3"/>
       <c r="X723" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="724" spans="1:24">
@@ -49004,7 +48999,7 @@
       <c r="V724" s="2"/>
       <c r="W724" s="2"/>
       <c r="X724" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="725" spans="1:24">
@@ -49054,7 +49049,7 @@
       <c r="V725" s="3"/>
       <c r="W725" s="3"/>
       <c r="X725" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="726" spans="1:24">
@@ -49104,7 +49099,7 @@
       <c r="V726" s="2"/>
       <c r="W726" s="2"/>
       <c r="X726" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="727" spans="1:24">
@@ -49154,7 +49149,7 @@
       <c r="V727" s="3"/>
       <c r="W727" s="3"/>
       <c r="X727" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="728" spans="1:24">
@@ -49202,7 +49197,7 @@
       <c r="V728" s="2"/>
       <c r="W728" s="2"/>
       <c r="X728" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="729" spans="1:24">
@@ -49252,7 +49247,7 @@
       <c r="V729" s="3"/>
       <c r="W729" s="3"/>
       <c r="X729" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="730" spans="1:24">
@@ -49302,7 +49297,7 @@
       <c r="V730" s="2"/>
       <c r="W730" s="2"/>
       <c r="X730" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="731" spans="1:24">
@@ -49352,7 +49347,7 @@
       <c r="V731" s="3"/>
       <c r="W731" s="3"/>
       <c r="X731" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="732" spans="1:24">
@@ -49402,7 +49397,7 @@
       <c r="V732" s="2"/>
       <c r="W732" s="2"/>
       <c r="X732" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="733" spans="1:24">
@@ -49452,7 +49447,7 @@
       <c r="V733" s="3"/>
       <c r="W733" s="3"/>
       <c r="X733" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="734" spans="1:24">
@@ -49502,7 +49497,7 @@
       <c r="V734" s="2"/>
       <c r="W734" s="2"/>
       <c r="X734" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="735" spans="1:24">
@@ -49552,7 +49547,7 @@
       <c r="V735" s="3"/>
       <c r="W735" s="3"/>
       <c r="X735" s="3" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="736" spans="1:24">
@@ -49602,7 +49597,7 @@
       <c r="V736" s="2"/>
       <c r="W736" s="2"/>
       <c r="X736" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="737" spans="1:24">
@@ -49652,7 +49647,7 @@
       <c r="V737" s="3"/>
       <c r="W737" s="3"/>
       <c r="X737" s="3" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="738" spans="1:24">
@@ -49706,7 +49701,7 @@
       <c r="V738" s="2"/>
       <c r="W738" s="2"/>
       <c r="X738" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="739" spans="1:24">
@@ -49760,7 +49755,7 @@
       <c r="V739" s="3"/>
       <c r="W739" s="3"/>
       <c r="X739" s="3" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="740" spans="1:24">
@@ -49820,7 +49815,7 @@
       <c r="V740" s="2"/>
       <c r="W740" s="2"/>
       <c r="X740" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="741" spans="1:24">
@@ -49880,7 +49875,7 @@
       <c r="V741" s="3"/>
       <c r="W741" s="3"/>
       <c r="X741" s="3" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="742" spans="1:24">
@@ -49940,7 +49935,7 @@
       <c r="V742" s="2"/>
       <c r="W742" s="2"/>
       <c r="X742" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="743" spans="1:24">
@@ -50000,7 +49995,7 @@
       <c r="V743" s="3"/>
       <c r="W743" s="3"/>
       <c r="X743" s="3" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="744" spans="1:24">
@@ -50060,7 +50055,7 @@
       <c r="V744" s="2"/>
       <c r="W744" s="2"/>
       <c r="X744" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="745" spans="1:24">
@@ -50120,7 +50115,7 @@
       <c r="V745" s="3"/>
       <c r="W745" s="3"/>
       <c r="X745" s="3" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="746" spans="1:24">
@@ -50180,7 +50175,7 @@
       <c r="V746" s="2"/>
       <c r="W746" s="2"/>
       <c r="X746" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="747" spans="1:24">
@@ -50240,7 +50235,7 @@
       <c r="V747" s="3"/>
       <c r="W747" s="3"/>
       <c r="X747" s="3" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="748" spans="1:24">
@@ -50300,7 +50295,7 @@
       <c r="V748" s="2"/>
       <c r="W748" s="2"/>
       <c r="X748" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="749" spans="1:24">
@@ -50350,7 +50345,7 @@
       <c r="V749" s="3"/>
       <c r="W749" s="3"/>
       <c r="X749" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="750" spans="1:24">
@@ -50400,7 +50395,7 @@
       <c r="V750" s="2"/>
       <c r="W750" s="2"/>
       <c r="X750" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="751" spans="1:24">
@@ -50450,7 +50445,7 @@
       <c r="V751" s="3"/>
       <c r="W751" s="3"/>
       <c r="X751" s="3" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="752" spans="1:24">
@@ -50500,7 +50495,7 @@
       <c r="V752" s="2"/>
       <c r="W752" s="2"/>
       <c r="X752" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="753" spans="1:24">
@@ -50559,12 +50554,12 @@
         <v>6.77</v>
       </c>
       <c r="U753" s="3" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V753" s="3"/>
       <c r="W753" s="3"/>
       <c r="X753" s="3" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="754" spans="1:24">
@@ -50623,12 +50618,12 @@
         <v>6.78</v>
       </c>
       <c r="U754" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="V754" s="2"/>
       <c r="W754" s="2"/>
       <c r="X754" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
   </sheetData>
